--- a/data/income_statement/1digit/size/E_IS_MEDIUM.xlsx
+++ b/data/income_statement/1digit/size/E_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>E-Water supply; sewerage; waste management and remediation activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>E-Water supply; sewerage; waste management and remediation activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,638 +841,723 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>632708.706</v>
+        <v>675961.8031499999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>975907.5562699999</v>
+        <v>963238.9762899999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1575507.85626</v>
+        <v>1593885.47841</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1930781.45156</v>
+        <v>2001974.13382</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2134383.14649</v>
+        <v>2157423.99693</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2663001.86293</v>
+        <v>2701528.46073</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2636228.517</v>
+        <v>2623407.22845</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3219643.6687</v>
+        <v>3317962.28276</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>5879520.245530001</v>
+        <v>6087655.189359999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>5742846.34791</v>
+        <v>6092323.69069</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>6543977.57305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>7530160.38447</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>9151732.685000001</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>598898.1863200001</v>
+        <v>641576.19635</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>937229.0850700001</v>
+        <v>929145.34976</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1499718.57719</v>
+        <v>1518661.32043</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1864186.95529</v>
+        <v>1929480.21195</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2028439.97362</v>
+        <v>2045879.62655</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2530014.71279</v>
+        <v>2569832.76373</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2476336.18865</v>
+        <v>2472754.3006</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2947709.85166</v>
+        <v>3048907.60059</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>5401976.70447</v>
+        <v>5568746.39002</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>5127807.33225</v>
+        <v>5424837.76157</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>5818236.690049999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>6588201.904699999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>7698111.492</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>20983.41834</v>
+        <v>21309.2355</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>15958.32774</v>
+        <v>15201.57039</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>57632.20518</v>
+        <v>57173.50487999999</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>40621.1537</v>
+        <v>41646.77342</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>53987.3947</v>
+        <v>52356.85343</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>87203.41124000002</v>
+        <v>82305.62740000001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>119576.78401</v>
+        <v>109623.87262</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>199808.73442</v>
+        <v>188547.64136</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>386631.45569</v>
+        <v>381495.69961</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>504287.61863</v>
+        <v>501110.32195</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>612694.13965</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>783859.97431</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1337992.429</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>12827.10134</v>
+        <v>13076.3713</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>22720.14346</v>
+        <v>18892.05614</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>18157.07389</v>
+        <v>18050.6531</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>25973.34257</v>
+        <v>30847.14845</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>51955.77817000001</v>
+        <v>59187.51695</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>45783.7389</v>
+        <v>49390.0696</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>40315.54434</v>
+        <v>41029.05523000001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>72125.08262000002</v>
+        <v>80507.04081000001</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>90912.08537</v>
+        <v>137413.09973</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>110751.39703</v>
+        <v>166375.60717</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>113046.74335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>158098.50546</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>115628.764</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>2096.04623</v>
+        <v>7131.876939999999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>6101.22565</v>
+        <v>4977.66213</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>4053.85725</v>
+        <v>3904.79342</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>6140.478</v>
+        <v>6936.949719999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>17823.96878</v>
+        <v>25079.57474</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>32268.56373</v>
+        <v>42635.49615</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>14718.55682</v>
+        <v>13956.72469</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>15591.03611</v>
+        <v>17064.58212</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>32494.08219</v>
+        <v>38069.80799</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>49496.62837999999</v>
+        <v>51782.10007</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>63951.45600999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>64947.89704</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>90584.11500000001</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1912.26742</v>
+        <v>1982.19901</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>5501.34766</v>
+        <v>4410.46619</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>3566.26329</v>
+        <v>3441.03273</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>3953.67476</v>
+        <v>4623.62291</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>6430.463640000001</v>
+        <v>14740.28695</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>14028.85007</v>
+        <v>24091.83678</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>8959.206539999999</v>
+        <v>9038.933849999998</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>10004.99844</v>
+        <v>11458.3984</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>17388.36203</v>
+        <v>21436.1519</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>24691.22417</v>
+        <v>26353.5011</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>26971.85363</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>30216.65062</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>56386.216</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>152.87748</v>
+        <v>4936.052159999999</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>314.67568</v>
+        <v>281.91639</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>298.977</v>
+        <v>273.21972</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1650.27627</v>
+        <v>1763.91121</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>9753.457090000002</v>
+        <v>9864.10363</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>12585.98417</v>
+        <v>12930.97393</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>4412.71232</v>
+        <v>4376.51389</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>4679.651360000001</v>
+        <v>4867.898120000001</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>12331.42681</v>
+        <v>14488.71065</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>24251.30037</v>
+        <v>24914.53796</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>25633.89097</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>26370.93501</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>28076.267</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>30.90133</v>
+        <v>213.62577</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>285.20231</v>
+        <v>285.27955</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>188.61696</v>
+        <v>190.54097</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>536.52697</v>
+        <v>549.4155999999999</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1640.04805</v>
+        <v>475.18416</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>5653.729490000001</v>
+        <v>5612.685440000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1346.63796</v>
+        <v>541.2769499999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>906.38631</v>
+        <v>738.2855999999999</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>2774.29335</v>
+        <v>2144.94544</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>554.10384</v>
+        <v>514.06101</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>11345.71141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>8360.31141</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>6121.632</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>630612.65977</v>
+        <v>668829.9262100001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>969806.33062</v>
+        <v>958261.31416</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1571453.99901</v>
+        <v>1589980.68499</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1924640.97356</v>
+        <v>1995037.1841</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2116559.17771</v>
+        <v>2132344.42219</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2630733.2992</v>
+        <v>2658892.96458</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2621509.96018</v>
+        <v>2609450.50376</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3204052.63259</v>
+        <v>3300897.70064</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>5847026.16334</v>
+        <v>6049585.381370001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>5693349.719529999</v>
+        <v>6040541.59062</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>6480026.11704</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>7465212.487430001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>9061148.57</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>537354.1555899999</v>
+        <v>561394.23827</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>855462.9878000001</v>
+        <v>845132.5654200001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1361249.4922</v>
+        <v>1373376.39664</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1714271.09664</v>
+        <v>1774004.99845</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1883842.98709</v>
+        <v>1903239.93571</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2349525.34022</v>
+        <v>2372390.351170001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2401435.58706</v>
+        <v>2383754.70677</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2903231.5325</v>
+        <v>2962937.736579999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>5315693.010810001</v>
+        <v>5423700.29128</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5104101.11251</v>
+        <v>5382450.03625</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5689273.35172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>6606962.476909999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>7974289.346</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>119801.2326</v>
+        <v>131610.90177</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>278977.74434</v>
+        <v>284179.4010900001</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>468964.66347</v>
+        <v>471710.2958700001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>609527.55114</v>
+        <v>638950.0334300001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>845739.92373</v>
+        <v>853112.27897</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1000654.33481</v>
+        <v>1028712.14575</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1231029.34549</v>
+        <v>1218298.53041</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1150588.58667</v>
+        <v>1220933.72282</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>1897358.56517</v>
+        <v>1904134.15436</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1735124.35529</v>
+        <v>1987012.79147</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>2362714.81266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2794724.1328</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>3570365.609</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>233521.30443</v>
+        <v>236058.37247</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>363115.0642</v>
+        <v>358934.2265</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>569686.98766</v>
+        <v>566217.56021</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>667613.5190699999</v>
+        <v>676853.9979899999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>493417.96443</v>
+        <v>525430.95839</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>771994.0950900001</v>
+        <v>758565.32825</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>725945.4758400001</v>
+        <v>691649.72441</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1123165.32739</v>
+        <v>1094280.2057</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2546611.09454</v>
+        <v>2568909.73724</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2061620.67608</v>
+        <v>2028050.10166</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2168636.61576</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2305271.79861</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2917307.103</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>183935.00693</v>
+        <v>193628.3524</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>210672.78092</v>
+        <v>201288.53949</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>322406.87792</v>
+        <v>335243.80147</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>436628.65633</v>
+        <v>457715.86295</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>543778.8150800002</v>
+        <v>523034.59753</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>571472.4402599999</v>
+        <v>579574.4291099999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>433320.32583</v>
+        <v>462896.41663</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>620001.9951999999</v>
+        <v>639270.6540399999</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>857720.0132</v>
+        <v>923144.6008700001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1271787.57672</v>
+        <v>1316499.36375</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1134765.85017</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1471386.46113</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1415090.044</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>96.61163000000001</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>2697.39834</v>
+        <v>730.3983400000001</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>190.96315</v>
+        <v>204.73909</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>501.3701</v>
+        <v>485.10408</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>906.28385</v>
+        <v>1662.10082</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>5404.47006</v>
+        <v>5538.44806</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>11140.4399</v>
+        <v>10910.03532</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>9475.623240000001</v>
+        <v>8453.15402</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>14003.3379</v>
+        <v>27511.79881</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>35568.50442</v>
+        <v>50887.77937</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>23156.07313</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>35580.08437</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>71526.59</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>93258.50417999999</v>
+        <v>107435.68794</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>114343.34282</v>
+        <v>113128.74874</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>210204.50681</v>
+        <v>216604.28835</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>210369.87692</v>
+        <v>221032.18565</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>232716.19062</v>
+        <v>229104.48648</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>281207.95898</v>
+        <v>286502.61341</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>220074.37312</v>
+        <v>225695.79699</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>300821.10009</v>
+        <v>337959.96406</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>531333.1525300001</v>
+        <v>625885.0900900001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>589248.60702</v>
+        <v>658091.55437</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>790752.7653199999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>858250.01052</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1086859.224</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>56972.83624</v>
+        <v>56941.88776</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>77824.44157999998</v>
+        <v>71501.37867000001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>120964.4191</v>
+        <v>122833.73029</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>135822.97141</v>
+        <v>159219.21343</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>146362.87622</v>
+        <v>153366.41725</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>191628.11804</v>
+        <v>185141.12398</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>205421.46479</v>
+        <v>192226.06226</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>216809.55058</v>
+        <v>208303.85047</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>308981.2823000001</v>
+        <v>340087.8941099999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>333732.50924</v>
+        <v>359916.39129</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>465032.3757100001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>507598.67949</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>590190.225</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>426.8742099999999</v>
@@ -1583,229 +1569,259 @@
         <v>124.31482</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>33.04969999999999</v>
+        <v>2204.02333</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>1005.17853</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>272.42743</v>
+        <v>299.59146</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>63.71889</v>
+        <v>12.00661</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>101.7223</v>
+        <v>64.73176000000001</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1781.78833</v>
+        <v>1779.87079</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>2960.34823</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>790.4797600000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3787.17635</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>2501.824</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>12369.67443</v>
+        <v>15686.25864</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>16660.94944</v>
+        <v>16685.00086</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>47665.1822</v>
+        <v>47947.76419</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>43207.12295</v>
+        <v>45069.35509</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>37138.91525999999</v>
+        <v>36096.20443999999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>54365.79526000001</v>
+        <v>50333.8725</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>43182.76394</v>
+        <v>41844.61647000001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>57032.14227</v>
+        <v>56529.8251</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>86454.02391</v>
+        <v>82756.58045000001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>98607.29084000002</v>
+        <v>100021.77089</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>154797.87235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>161184.8547</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>169739.048</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>44176.2876</v>
+        <v>40828.75491</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>61163.20087</v>
+        <v>54816.08654</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>73174.92208</v>
+        <v>74761.65127999999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>92582.79876000001</v>
+        <v>111945.83501</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>108218.78243</v>
+        <v>116265.03428</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>136989.89535</v>
+        <v>134507.66002</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>162174.98196</v>
+        <v>150369.43918</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>159675.68601</v>
+        <v>151709.29361</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>220745.47006</v>
+        <v>255551.44287</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>232164.87017</v>
+        <v>256934.27217</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>309444.0236</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>342626.64844</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>417949.353</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>36285.66794</v>
+        <v>50493.80018000001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>36518.90123999999</v>
+        <v>41627.37006999999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>89240.08770999999</v>
+        <v>93770.55806</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>74546.90551</v>
+        <v>61812.97222</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>86353.3144</v>
+        <v>75738.06922999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>89579.84093999999</v>
+        <v>101361.48943</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>14652.90833</v>
+        <v>33469.73473</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>84011.54951000001</v>
+        <v>129656.11359</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>222351.87023</v>
+        <v>285797.19598</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>255516.09778</v>
+        <v>298175.16308</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>325720.38961</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>350651.3310300001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>496668.999</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>16958.31535</v>
+        <v>20596.26712</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>20376.35345</v>
+        <v>18439.09716</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>29008.33363</v>
+        <v>28578.77332</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>25975.88471</v>
+        <v>36938.69908999999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>47049.66385</v>
+        <v>57284.69699</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>44301.20872</v>
+        <v>66422.47783</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>71357.21245000001</v>
+        <v>57707.5396</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>57883.85913999999</v>
+        <v>53916.1938</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>73308.48534</v>
+        <v>156626.38869</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>308711.1373</v>
+        <v>437196.8443899999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>223118.59661</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>276418.58471</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>403185.746</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>332.14165</v>
+        <v>380.45421</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>5365.16124</v>
+        <v>4368.12235</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>5171.99603</v>
+        <v>5175.85697</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>4076.61687</v>
+        <v>4074.51435</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>5485.426689999999</v>
+        <v>3973.96391</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>3146.8107</v>
+        <v>3146.14134</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>6947.011469999999</v>
+        <v>1442.01684</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>5863.2573</v>
+        <v>538.8274099999999</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>6695.994559999999</v>
+        <v>1416.57959</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>2268.16351</v>
+        <v>9926.420689999999</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>1065.29675</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>22142.57293</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>47727.582</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1814,10 +1830,10 @@
         <v>2005.46668</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>3084.03139</v>
+        <v>2493.51768</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>986.4859099999999</v>
+        <v>4828.88576</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>0</v>
@@ -1826,73 +1842,83 @@
         <v>0</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>3819.98097</v>
+        <v>3630.62641</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>4596.368719999999</v>
+        <v>0</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>5617.65149</v>
+        <v>33091.52031</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>6766.982770000001</v>
+        <v>2102.41366</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>9907.400509999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>5742.505369999999</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>7112.855</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>3634.479</v>
+        <v>3938.54161</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>2210.14107</v>
+        <v>1518.74634</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>4376.660260000001</v>
+        <v>4445.46852</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>4252.89124</v>
+        <v>7730.86474</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>4495.69294</v>
+        <v>9365.242120000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>4089.91768</v>
+        <v>4928.583320000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>7111.170899999999</v>
+        <v>7440.172100000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>9666.665279999999</v>
+        <v>15008.92772</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>11176.43307</v>
+        <v>18143.86961</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>18841.96984</v>
+        <v>44769.64516</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>29941.72554</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>47147.47848999999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>50808.484</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1.91435</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>1.79147</v>
+        <v>1.75508</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>16.20422</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>231.99115</v>
@@ -1901,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>36.0472</v>
+        <v>32.456</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>0</v>
@@ -1916,136 +1942,156 @@
         <v>450.98035</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>109.5486</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>303.0576</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>141.998</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>896.6482</v>
+        <v>917.65458</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1651.09856</v>
+        <v>1181.45878</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>200.62409</v>
+        <v>255.90391</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>2627.55365</v>
+        <v>2674.66117</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>3386.095769999999</v>
+        <v>3412.1102</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>3054.44429</v>
+        <v>8184.452740000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1460.22821</v>
+        <v>1460.40521</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>480.3645799999999</v>
+        <v>563.3513899999999</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1379.63362</v>
+        <v>1461.53366</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>12003.86295</v>
+        <v>12516.73453</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>28581.60942</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>28765.95164</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>15352.706</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>131.54018</v>
+        <v>129.94348</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>311.44412</v>
+        <v>306.86519</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>801.8035000000001</v>
+        <v>109.30603</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1605.64492</v>
+        <v>508.1535</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>178.8124</v>
+        <v>175.09419</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>473.38253</v>
+        <v>421.05834</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>368.5586999999999</v>
+        <v>352.21861</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1478.77122</v>
+        <v>1474.46494</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>571.63789</v>
+        <v>571.30335</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>358.66911</v>
+        <v>358.6521700000001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>738.7791200000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1322.15646</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>2236.044</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>8253.19073</v>
+        <v>11558.25604</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>6477.144579999999</v>
+        <v>7016.974949999999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>13108.04762</v>
+        <v>13646.05956</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>8488.999099999999</v>
+        <v>14513.61008</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>20447.56862</v>
+        <v>34730.35764</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>19103.81069</v>
+        <v>30848.8342</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>37474.37612</v>
+        <v>30183.80666</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>30700.88623</v>
+        <v>33004.26592</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>42884.16571</v>
+        <v>94659.29831999999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>243205.67935</v>
+        <v>341838.48179</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>124503.38496</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>142568.52325</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>240917.718</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>312.06395</v>
+        <v>311.91124</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>0</v>
@@ -2057,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>799.45407</v>
+        <v>0</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,92 +2164,107 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>3708.40124</v>
+        <v>3669.50285</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>2042.04178</v>
+        <v>1727.79655</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>2248.96652</v>
+        <v>2452.66065</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>3705.70187</v>
+        <v>2376.01834</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>13056.06743</v>
+        <v>5627.92893</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>13597.34156</v>
+        <v>18860.95189</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>14175.88608</v>
+        <v>13198.29377</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>5074.61123</v>
+        <v>3303.42184</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>4901.69282</v>
+        <v>7201.00767</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>24624.96985</v>
+        <v>25043.65647</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>28270.85171</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>28426.33897</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>38888.359</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>14137.65325</v>
+        <v>17001.46356</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>8558.00518</v>
+        <v>8274.72747</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>20108.76539</v>
+        <v>25721.10058</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>9413.594869999999</v>
+        <v>12844.43816</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>42755.64222</v>
+        <v>71039.70181999999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>29297.86545</v>
+        <v>52691.02366</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>48740.90658</v>
+        <v>41319.19555</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>59014.85865</v>
+        <v>72701.56662</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>55039.12872000001</v>
+        <v>153930.54086</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>305247.17758</v>
+        <v>464527.0942599999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>237772.22529</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>254268.38265</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>352024.117</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>40.51024</v>
+        <v>181.77036</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>50.91116</v>
@@ -2213,67 +2279,77 @@
         <v>150.15536</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>170.05489</v>
+        <v>159.45397</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>43.92786</v>
+        <v>23.65342</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>41.99205000000001</v>
+        <v>20.84036</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>101.87538</v>
+        <v>96.82510000000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>32.58594</v>
+        <v>7.105569999999999</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>189.92085</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>328.10191</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>120.382</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>4321.037359999999</v>
+        <v>4438.29358</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1013.54821</v>
+        <v>605.8194100000001</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>563.07418</v>
+        <v>667.35442</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1563.19987</v>
+        <v>1350.70912</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>4754.143800000001</v>
+        <v>2695.81229</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>6442.4299</v>
+        <v>18415.30294</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>2974.30949</v>
+        <v>2624.85937</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>18099.09779</v>
+        <v>30551.91537</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>5842.96076</v>
+        <v>28903.38747</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>68996.14403999998</v>
+        <v>69815.90706</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>44610.89267</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>35015.05571</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>30058.221</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.0619</v>
@@ -2291,16 +2367,16 @@
         <v>0.62079</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>129.21041</v>
+        <v>27.822</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>52.62289</v>
+        <v>21.54889</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>0.06149</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>0.7434299999999999</v>
+        <v>2e-05</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>588.86857</v>
@@ -2308,53 +2384,63 @@
       <c r="M39" s="48" t="n">
         <v>0.00038</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>8620.003140000001</v>
+        <v>11232.364</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>5932.77996</v>
+        <v>6230.930310000001</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>14816.99216</v>
+        <v>20542.6139</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>7108.4691</v>
+        <v>10717.77895</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>25227.83755</v>
+        <v>63975.34</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>16618.45254</v>
+        <v>26443.18512</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>32653.60055</v>
+        <v>26836.681</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>36539.39012</v>
+        <v>38567.95276999999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>45116.17301</v>
+        <v>114078.9569</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>218668.78621</v>
+        <v>381368.38986</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>145312.8421</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>175508.70707</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>310519.7</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>0.15271</v>
+        <v>0</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>0</v>
@@ -2366,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>465.30244</v>
+        <v>0.29904</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>493.79471</v>
+        <v>159.34404</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,131 +2516,151 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1155.8879</v>
+        <v>1148.97372</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>809.14368</v>
+        <v>635.4444199999999</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>4707.3689</v>
+        <v>4489.80211</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>476.31635</v>
+        <v>510.34054</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>12157.58228</v>
+        <v>4217.47434</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>5443.923</v>
+        <v>7485.91559</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>13016.44579</v>
+        <v>11812.45287</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>4334.3172</v>
+        <v>3560.79663</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>3954.61275</v>
+        <v>10828.60798</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>16772.51928</v>
+        <v>12558.54966</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>47658.56929</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>43416.51758</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>11325.814</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>17418.88075</v>
+        <v>17843.92402</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>15228.79914</v>
+        <v>13915.51626</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>25785.4256</v>
+        <v>29255.85301</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>30527.61066</v>
+        <v>52429.83420999999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>39540.89913000001</v>
+        <v>58953.26009</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>44244.13525</v>
+        <v>45146.20055</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>49144.27694999999</v>
+        <v>44398.55969</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>66647.74589999999</v>
+        <v>64361.83902000001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>81837.69038999999</v>
+        <v>111966.74184</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>150688.33005</v>
+        <v>249033.29181</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>260371.9001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>265985.82699</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>216062.122</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>13354.75256</v>
+        <v>10267.32593</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>13192.92245</v>
+        <v>11879.63957</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>18517.3771</v>
+        <v>21987.80451</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>25054.11349</v>
+        <v>46956.33704000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>33866.83222</v>
+        <v>38207.10398</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>38266.96953</v>
+        <v>37366.15417</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>44388.57150999999</v>
+        <v>39829.26521</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>60280.65085</v>
+        <v>56676.3712</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>74627.37616</v>
+        <v>86886.40725</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>124727.4701</v>
+        <v>173771.87631</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>214906.51416</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>202246.34071</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>197733.236</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>4064.12819</v>
+        <v>7576.59809</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>2035.87669</v>
@@ -2558,460 +2669,518 @@
         <v>7268.0485</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>5473.497170000001</v>
+        <v>5473.49717</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>5674.06691</v>
+        <v>20746.15611</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>5977.165720000001</v>
+        <v>7780.046380000001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>4755.70544</v>
+        <v>4569.29448</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>6367.09505</v>
+        <v>7685.46782</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>7210.314230000001</v>
+        <v>25080.33459</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>25960.85995</v>
+        <v>75261.4155</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>45465.38594000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>63739.48628</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>18328.886</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>21687.44929</v>
+        <v>36244.67972</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>33108.45037</v>
+        <v>37876.2235</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>72354.23035000001</v>
+        <v>67372.37779000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>60581.58469</v>
+        <v>33477.39894</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>51106.4369</v>
+        <v>3029.804309999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>60339.04896</v>
+        <v>69946.74304999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-11875.06275</v>
+        <v>5459.51909</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>16232.8041</v>
+        <v>46508.90175</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>158783.53646</v>
+        <v>176526.30197</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>108291.72745</v>
+        <v>21811.62139999999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>50694.86083</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>106815.7061</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>331768.506</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>2450.186099999999</v>
+        <v>3820.84356</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>6473.374970000001</v>
+        <v>8921.053449999999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>7846.08</v>
+        <v>8995.196390000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>11972.67419</v>
+        <v>13533.00851</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>22480.16687</v>
+        <v>14080.27345</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>16113.63818</v>
+        <v>28666.1095</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>29854.96671</v>
+        <v>26798.40985</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>39870.37694</v>
+        <v>37951.49851</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>26657.62486</v>
+        <v>23283.69543</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>32070.73321</v>
+        <v>34749.55428</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>81608.7555</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>86950.73367</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>103202.314</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>24.19817</v>
+        <v>24.47015</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>110.59517</v>
+        <v>99.90321999999999</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>887.54973</v>
+        <v>843.87883</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>60.15556000000001</v>
+        <v>30.48679</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>448.7215600000001</v>
+        <v>414.66485</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>700.47667</v>
+        <v>687.8280299999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>757.04213</v>
+        <v>774.96321</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>347.1135</v>
+        <v>1086.88061</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1105.16751</v>
+        <v>394.68672</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>521.55289</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1271.79235</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1397.93698</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>3731.535</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>2425.98793</v>
+        <v>3796.37341</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>6362.7798</v>
+        <v>8821.150230000001</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>6958.530269999999</v>
+        <v>8151.31756</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>11912.51863</v>
+        <v>13502.52172</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>22031.44531</v>
+        <v>13665.6086</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>15413.16151</v>
+        <v>27978.28147</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>29097.92458</v>
+        <v>26023.44664</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>39523.26344</v>
+        <v>36864.6179</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>25552.45735</v>
+        <v>22889.00871</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>31549.18032</v>
+        <v>34228.00139</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>80336.96315000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>85552.79669000002</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>99470.77899999999</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>3600.34666</v>
+        <v>3743.2125</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>4454.64643</v>
+        <v>4243.028859999999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>36915.88804</v>
+        <v>39305.50786</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>10528.24403</v>
+        <v>11024.57806</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>15417.76961</v>
+        <v>20842.1047</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>25148.21461</v>
+        <v>20201.36086</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>32516.57852</v>
+        <v>24428.78915</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>43514.82596</v>
+        <v>37796.95822</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>31573.80712</v>
+        <v>36262.30124</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>75798.17142</v>
+        <v>104302.04977</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>84290.12861</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>111041.28362</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>124494.328</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>278.68602</v>
+        <v>204.81927</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>204.24184</v>
+        <v>205.38633</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1832.85352</v>
+        <v>2506.55268</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>289.99935</v>
+        <v>1149.90737</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>409.9262</v>
+        <v>758.5415300000001</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>2747.57938</v>
+        <v>98.51824999999999</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1908.93116</v>
+        <v>240.15482</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>537.1302900000001</v>
+        <v>166.5529</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1168.57343</v>
+        <v>1406.47858</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>842.8861100000001</v>
+        <v>2979.82251</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>13086.66871</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>7625.741970000001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>96.07899999999999</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>135.27703</v>
+        <v>408.73437</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>708.4325900000001</v>
+        <v>624.4359499999999</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>2800.3377</v>
+        <v>2754.44909</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1256.67325</v>
+        <v>1227.61072</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>332.54233</v>
+        <v>208.85906</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>297.65417</v>
+        <v>291.82774</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>2145.618</v>
+        <v>2114.19188</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>525.44903</v>
+        <v>554.50202</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>3575.48363</v>
+        <v>5072.73131</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1860.22691</v>
+        <v>1855.03863</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>11517.18074</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2726.31191</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>53528.102</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>3186.38361</v>
+        <v>3129.65886</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>3541.972</v>
+        <v>3413.20658</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>32282.69682</v>
+        <v>34044.50609</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>8981.57143</v>
+        <v>8647.05997</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>14675.30108</v>
+        <v>19874.70411</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>22102.98106</v>
+        <v>19811.01487</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>28462.02936</v>
+        <v>22074.44245</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>42452.24664</v>
+        <v>37075.9033</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>26829.75006</v>
+        <v>29783.09135</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>73095.05840000001</v>
+        <v>99467.18862999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>59686.27916</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>100689.22974</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>70870.147</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>20537.28873</v>
+        <v>36322.31078</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>35127.17891</v>
+        <v>42554.24809</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>43284.42231</v>
+        <v>37062.06632000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>62026.01484999999</v>
+        <v>35985.82939</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>58168.83416000001</v>
+        <v>-3732.026939999997</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>51304.47253</v>
+        <v>78411.49169</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-14536.67456</v>
+        <v>7829.139790000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>12588.35508</v>
+        <v>46663.44203999999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>153867.3542</v>
+        <v>163547.69616</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>64564.28924000001</v>
+        <v>-47740.87409</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>48013.48772</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>82725.15615</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>310476.492</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>7942.733939999999</v>
+        <v>9259.99984</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>7509.895560000001</v>
+        <v>7109.89166</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>16589.78706</v>
+        <v>16047.351</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>14918.5488</v>
+        <v>15378.23908</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>17531.79530000001</v>
+        <v>15918.75522</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>21861.27177</v>
+        <v>25708.84719</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>12321.68695</v>
+        <v>12137.92676</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>15366.83719</v>
+        <v>16201.96293</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>34240.50880999999</v>
+        <v>35414.12108</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>35611.75163000001</v>
+        <v>35878.59662</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>43805.2731</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>57690.81339</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>86449.584</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>12594.55479</v>
+        <v>27062.31094</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>27617.28335</v>
+        <v>35444.35643</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>26694.63525</v>
+        <v>21014.71532</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>47107.46605</v>
+        <v>20607.59031</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>40637.03886</v>
+        <v>-19650.78216</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>29443.20076</v>
+        <v>52702.6445</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-26858.36151</v>
+        <v>-4308.786970000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-2778.482110000001</v>
+        <v>30461.47911</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>119626.84539</v>
+        <v>128133.57508</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>28952.53760999999</v>
+        <v>-83619.47070999998</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>4208.21462</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>25034.34275999999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>224026.908</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>135</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>